--- a/性能测试数据分析.xlsx
+++ b/性能测试数据分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,7 +806,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -913,6 +915,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
+        <c:hiLowLines/>
         <c:marker val="1"/>
         <c:axId val="90449024"/>
         <c:axId val="90450560"/>
@@ -923,7 +927,24 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>日志数据量（单位：万）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -940,18 +961,31 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>花费时间（单位：秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="90449024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -966,7 +1000,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1073,6 +1109,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
+        <c:hiLowLines/>
         <c:marker val="1"/>
         <c:axId val="90466176"/>
         <c:axId val="90467712"/>
@@ -1083,7 +1121,24 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>日志数据量（单位：万）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1100,18 +1155,31 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>花费时间（单位：秒）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="90466176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -1256,16 +1324,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>182250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>105148</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1286,16 +1354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114674</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1604,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -2151,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
